--- a/내_새글_쓰기_테스트용.xlsx
+++ b/내_새글_쓰기_테스트용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunho\source\repos\oneofthezombies\NaverBlogTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B5465F-1A32-4D9B-BB4A-6E58F88A66FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD404AB5-8615-4334-86C3-B61A853BBCAD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16125" windowHeight="4980" xr2:uid="{501272A3-2AFB-4377-94FA-A450E69B6B5C}"/>
   </bookViews>
@@ -30,37 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>pw</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>content2</t>
-  </si>
-  <si>
-    <t>content3</t>
-  </si>
-  <si>
-    <t>imgs</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>badmanjudge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,19 +65,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images/my_image.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my_tag0, my_tag1, my_tag2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_open (yes or no)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본문1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본문2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본문3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그 (컴마로 분리, 예. tag0, tag1, tag2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비공개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이미지들 (run.bat이 있는 폴더 내에) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 유무 / 년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 안함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+images/my_image.png
+images/nested/my_image4.png
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E239E6-3994-4FD7-AC40-63007B437D58}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -504,85 +531,681 @@
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>18</v>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>14</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>14</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>14</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>14</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>14</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>14</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>14</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L32" xr:uid="{378EE644-02CA-4F2C-BE78-F1D004BA587D}">
+      <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M36" xr:uid="{C09DD82B-81AD-4ED7-9672-CC970E5B90D9}">
+      <formula1>"0,10,20,30,40,50"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N18" xr:uid="{810AC18D-E79E-4DC4-95E3-CE4B453B1B0A}">
+      <formula1>"공개,비공개"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I20" xr:uid="{35FFF002-F309-4EF5-8252-31509749E7CE}">
+      <formula1>"예약 안함,2018,2019"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K34" xr:uid="{436519A2-1A50-4B28-A546-E662BAC35296}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J34" xr:uid="{F8782ECF-ACB8-4944-87A0-20350E391048}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D1857B96-2F3B-4EC8-A3C6-67DC90FAE198}"/>
   </hyperlinks>

--- a/내_새글_쓰기_테스트용.xlsx
+++ b/내_새글_쓰기_테스트용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunho\source\repos\oneofthezombies\NaverBlogTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD404AB5-8615-4334-86C3-B61A853BBCAD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916F1C1E-E8E2-4BF1-A2AD-281AA1A9F368}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16125" windowHeight="4980" xr2:uid="{501272A3-2AFB-4377-94FA-A450E69B6B5C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>badmanjudge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,13 +128,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>images/my_image.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>예약 안함</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-images/my_image.png
-images/nested/my_image4.png
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,13 +516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E239E6-3994-4FD7-AC40-63007B437D58}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
@@ -542,7 +540,7 @@
     <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -586,7 +584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -609,10 +607,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
       </c>
       <c r="J2">
         <v>11</v>
@@ -630,579 +628,291 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3">
-        <v>11</v>
-      </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4">
-        <v>11</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5">
-        <v>11</v>
-      </c>
-      <c r="K5">
-        <v>14</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6">
-        <v>11</v>
-      </c>
-      <c r="K6">
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7">
-        <v>11</v>
-      </c>
-      <c r="K7">
-        <v>14</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8">
-        <v>11</v>
-      </c>
-      <c r="K8">
-        <v>14</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9">
-        <v>11</v>
-      </c>
-      <c r="K9">
-        <v>14</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10">
-        <v>11</v>
-      </c>
-      <c r="K10">
-        <v>14</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11">
-        <v>11</v>
-      </c>
-      <c r="K11">
-        <v>14</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-      <c r="K12">
-        <v>14</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13">
-        <v>11</v>
-      </c>
-      <c r="K13">
-        <v>14</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14">
-        <v>11</v>
-      </c>
-      <c r="K14">
-        <v>14</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15">
-        <v>11</v>
-      </c>
-      <c r="K15">
-        <v>14</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16">
-        <v>11</v>
-      </c>
-      <c r="K16">
-        <v>14</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17">
-        <v>11</v>
-      </c>
-      <c r="K17">
-        <v>14</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18">
-        <v>11</v>
-      </c>
-      <c r="K18">
-        <v>14</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19">
-        <v>11</v>
-      </c>
-      <c r="K19">
-        <v>14</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20">
-        <v>11</v>
-      </c>
-      <c r="K20">
-        <v>14</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J21">
-        <v>11</v>
-      </c>
-      <c r="K21">
-        <v>14</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J22">
-        <v>11</v>
-      </c>
-      <c r="K22">
-        <v>14</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J23">
-        <v>11</v>
-      </c>
-      <c r="K23">
-        <v>14</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J24">
-        <v>11</v>
-      </c>
-      <c r="K24">
-        <v>14</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J25">
-        <v>11</v>
-      </c>
-      <c r="K25">
-        <v>14</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J26">
-        <v>11</v>
-      </c>
-      <c r="K26">
-        <v>14</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J27">
-        <v>11</v>
-      </c>
-      <c r="K27">
-        <v>14</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J28">
-        <v>11</v>
-      </c>
-      <c r="K28">
-        <v>14</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J29">
-        <v>11</v>
-      </c>
-      <c r="K29">
-        <v>14</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J30">
-        <v>11</v>
-      </c>
-      <c r="K30">
-        <v>14</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J31">
-        <v>11</v>
-      </c>
-      <c r="K31">
-        <v>14</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="J32">
-        <v>11</v>
-      </c>
-      <c r="K32">
-        <v>14</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J33">
-        <v>11</v>
-      </c>
-      <c r="K33">
-        <v>14</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J34">
-        <v>11</v>
-      </c>
-      <c r="K34">
-        <v>14</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="M36">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L32" xr:uid="{378EE644-02CA-4F2C-BE78-F1D004BA587D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L40" xr:uid="{378EE644-02CA-4F2C-BE78-F1D004BA587D}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M36" xr:uid="{C09DD82B-81AD-4ED7-9672-CC970E5B90D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M40" xr:uid="{C09DD82B-81AD-4ED7-9672-CC970E5B90D9}">
       <formula1>"0,10,20,30,40,50"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N18" xr:uid="{810AC18D-E79E-4DC4-95E3-CE4B453B1B0A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N40" xr:uid="{810AC18D-E79E-4DC4-95E3-CE4B453B1B0A}">
       <formula1>"공개,비공개"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I20" xr:uid="{35FFF002-F309-4EF5-8252-31509749E7CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I40" xr:uid="{35FFF002-F309-4EF5-8252-31509749E7CE}">
       <formula1>"예약 안함,2018,2019"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K34" xr:uid="{436519A2-1A50-4B28-A546-E662BAC35296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K40" xr:uid="{436519A2-1A50-4B28-A546-E662BAC35296}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J34" xr:uid="{F8782ECF-ACB8-4944-87A0-20350E391048}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J40" xr:uid="{F8782ECF-ACB8-4944-87A0-20350E391048}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
     </dataValidation>
   </dataValidations>
